--- a/xlsx/country_comparison/conjoint_all_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_all_positive.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -29,37 +35,34 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
     <t xml:space="preserve">Global climate scheme (GCS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;C+NR+GCS&lt;&lt; vs. C+NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: C+NR vs. &gt;&gt;GCS+NR&lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: NR vs. &gt;&gt;NR+C+GCS&lt;&lt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;NR+GCS&lt;&lt; vs. NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;NR+C&lt;&lt; vs. NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;Left&lt;&lt; vs. Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: &gt;&gt;Left+GCS&lt;&lt; vs. Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conjoint: random programs &gt;&gt;A+GCS&lt;&lt; vs. B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random program &lt;b&gt;with GCS&lt;/b&gt; vs. without</t>
+    <t xml:space="preserve">C+NR+GCS preferred to C+NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCS+NR preferred to C+NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+C+GCS preferred to NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+GCS preferred to NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR+C preferred to NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left preferred to Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left+GCS preferred to Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random programs: A+GCS preferred to B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random programs: with GCS preferred to without</t>
   </si>
 </sst>
 </file>
@@ -410,205 +413,238 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.781995380252627</v>
+        <v>0.533050523673449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.712010897427332</v>
+        <v>0.752698343735098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.827767423293579</v>
+        <v>0.805398319468679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.722976555380657</v>
+        <v>0.708750845625959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.533050523673449</v>
+        <v>0.813439832560037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.745700372884844</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.781888355211445</v>
+        <v>0.540334377126678</v>
       </c>
       <c r="C3" t="n">
-        <v>0.711660781652381</v>
+        <v>0.732801058256552</v>
       </c>
       <c r="D3" t="n">
-        <v>0.801845843811584</v>
+        <v>0.788948273734533</v>
       </c>
       <c r="E3" t="n">
-        <v>0.662615164948802</v>
+        <v>0.709122563432032</v>
       </c>
       <c r="F3" t="n">
-        <v>0.540334377126678</v>
+        <v>0.798611869881155</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.697707624460728</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.506460022581565</v>
+        <v>0.466267232447944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.557637736806466</v>
+        <v>0.528521467316923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.558863995749703</v>
+        <v>0.54298320618301</v>
       </c>
       <c r="E4" t="n">
-        <v>0.487015877061265</v>
+        <v>0.55747359485376</v>
       </c>
       <c r="F4" t="n">
-        <v>0.466267232447944</v>
+        <v>0.521779060704512</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.506395266498014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.857219385761349</v>
+        <v>0.547146463744832</v>
       </c>
       <c r="C5" t="n">
-        <v>0.751394618919885</v>
+        <v>0.78738474277188</v>
       </c>
       <c r="D5" t="n">
-        <v>0.838683821949252</v>
+        <v>0.865856512542897</v>
       </c>
       <c r="E5" t="n">
-        <v>0.723608598723154</v>
+        <v>0.753877610588178</v>
       </c>
       <c r="F5" t="n">
-        <v>0.547146463744832</v>
+        <v>0.79677790782055</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.769605840282518</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.761156408027965</v>
+        <v>0.551530613317319</v>
       </c>
       <c r="C6" t="n">
-        <v>0.762099934805461</v>
+        <v>0.762566643428049</v>
       </c>
       <c r="D6" t="n">
-        <v>0.784971497489425</v>
+        <v>0.794500153667354</v>
       </c>
       <c r="E6" t="n">
-        <v>0.746088878052818</v>
+        <v>0.746330102375747</v>
       </c>
       <c r="F6" t="n">
-        <v>0.551530613317319</v>
+        <v>0.768621148374205</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.773450102052741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.881762510881357</v>
+        <v>0.621563662115855</v>
       </c>
       <c r="C7" t="n">
-        <v>0.823710192520629</v>
+        <v>0.851093062431084</v>
       </c>
       <c r="D7" t="n">
-        <v>0.869627482347471</v>
+        <v>0.891209997097121</v>
       </c>
       <c r="E7" t="n">
-        <v>0.845000327812302</v>
+        <v>0.836163608902924</v>
       </c>
       <c r="F7" t="n">
-        <v>0.621563662115855</v>
+        <v>0.85553619504808</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.860329350730786</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.436887088431675</v>
+        <v>0.513294203712634</v>
       </c>
       <c r="C8" t="n">
-        <v>0.578463620141623</v>
+        <v>0.543145069828104</v>
       </c>
       <c r="D8" t="n">
-        <v>0.721515424583608</v>
+        <v>0.474501311635273</v>
       </c>
       <c r="E8" t="n">
-        <v>0.472591906973664</v>
+        <v>0.582095496172965</v>
       </c>
       <c r="F8" t="n">
-        <v>0.513294203712634</v>
+        <v>0.726521203594978</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.516683014328921</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.551209821013539</v>
+        <v>0.522486365888942</v>
       </c>
       <c r="C9" t="n">
-        <v>0.552380949455614</v>
+        <v>0.563015631485034</v>
       </c>
       <c r="D9" t="n">
-        <v>0.707880416395781</v>
+        <v>0.583534360400842</v>
       </c>
       <c r="E9" t="n">
-        <v>0.48298329031075</v>
+        <v>0.555535004809154</v>
       </c>
       <c r="F9" t="n">
-        <v>0.522486365888942</v>
+        <v>0.695972447908683</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.537479470210701</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.620661959757824</v>
+        <v>0.583564934623285</v>
       </c>
       <c r="C10" t="n">
-        <v>0.589964373357525</v>
+        <v>0.60085514854368</v>
       </c>
       <c r="D10" t="n">
-        <v>0.650896609420891</v>
+        <v>0.626458785077602</v>
       </c>
       <c r="E10" t="n">
-        <v>0.559546608035282</v>
+        <v>0.571808732582098</v>
       </c>
       <c r="F10" t="n">
-        <v>0.583564934623285</v>
+        <v>0.641263799532265</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.58845359372917</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.447523134702293</v>
+        <v>0.533925920664392</v>
       </c>
       <c r="C11" t="n">
-        <v>0.539493316186416</v>
+        <v>0.506245447687487</v>
       </c>
       <c r="D11" t="n">
-        <v>0.54411820555855</v>
+        <v>0.464648213495476</v>
       </c>
       <c r="E11" t="n">
-        <v>0.485871433018411</v>
+        <v>0.538620944501814</v>
       </c>
       <c r="F11" t="n">
-        <v>0.533925920664392</v>
+        <v>0.604991302855216</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.574542866003825</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_all_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_all_positive.xlsx
@@ -422,22 +422,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.533050523673449</v>
+        <v>0.527972736493319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.752698343735098</v>
+        <v>0.757320866764204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.805398319468679</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.708750845625959</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813439832560037</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.745700372884844</v>
+        <v>0.74106127773703</v>
       </c>
     </row>
     <row r="3">
@@ -445,22 +445,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.540334377126678</v>
+        <v>0.547746186051635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.732801058256552</v>
+        <v>0.735351301009053</v>
       </c>
       <c r="D3" t="n">
-        <v>0.788948273734533</v>
+        <v>0.786517033810842</v>
       </c>
       <c r="E3" t="n">
-        <v>0.709122563432032</v>
+        <v>0.714098080786382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.798611869881155</v>
+        <v>0.782294412865101</v>
       </c>
       <c r="G3" t="n">
-        <v>0.697707624460728</v>
+        <v>0.683359692303094</v>
       </c>
     </row>
     <row r="4">
@@ -468,22 +468,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.466267232447944</v>
+        <v>0.472512715667483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.528521467316923</v>
+        <v>0.515377450158311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.54298320618301</v>
+        <v>0.529174790889353</v>
       </c>
       <c r="E4" t="n">
-        <v>0.55747359485376</v>
+        <v>0.532760503496087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.521779060704512</v>
+        <v>0.490919481564323</v>
       </c>
       <c r="G4" t="n">
-        <v>0.506395266498014</v>
+        <v>0.520312075113975</v>
       </c>
     </row>
     <row r="5">
@@ -491,22 +491,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.547146463744832</v>
+        <v>0.549945299403874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.78738474277188</v>
+        <v>0.772716277532722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.865856512542897</v>
+        <v>0.861384362992593</v>
       </c>
       <c r="E5" t="n">
-        <v>0.753877610588178</v>
+        <v>0.727393767309419</v>
       </c>
       <c r="F5" t="n">
-        <v>0.79677790782055</v>
+        <v>0.832743165850594</v>
       </c>
       <c r="G5" t="n">
-        <v>0.769605840282518</v>
+        <v>0.721894153943557</v>
       </c>
     </row>
     <row r="6">
@@ -514,22 +514,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.551530613317319</v>
+        <v>0.546998519360197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.762566643428049</v>
+        <v>0.770223388683434</v>
       </c>
       <c r="D6" t="n">
-        <v>0.794500153667354</v>
+        <v>0.791348238675161</v>
       </c>
       <c r="E6" t="n">
-        <v>0.746330102375747</v>
+        <v>0.7419152210687</v>
       </c>
       <c r="F6" t="n">
-        <v>0.768621148374205</v>
+        <v>0.792397387102864</v>
       </c>
       <c r="G6" t="n">
-        <v>0.773450102052741</v>
+        <v>0.772122341113144</v>
       </c>
     </row>
     <row r="7">
@@ -537,22 +537,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.621563662115855</v>
+        <v>0.616278518818649</v>
       </c>
       <c r="C7" t="n">
-        <v>0.851093062431084</v>
+        <v>0.840441328944408</v>
       </c>
       <c r="D7" t="n">
-        <v>0.891209997097121</v>
+        <v>0.877676923710508</v>
       </c>
       <c r="E7" t="n">
-        <v>0.836163608902924</v>
+        <v>0.829293481343928</v>
       </c>
       <c r="F7" t="n">
-        <v>0.85553619504808</v>
+        <v>0.8401259487174</v>
       </c>
       <c r="G7" t="n">
-        <v>0.860329350730786</v>
+        <v>0.823739735276932</v>
       </c>
     </row>
     <row r="8">
@@ -560,22 +560,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.513294203712634</v>
+        <v>0.52683741382294</v>
       </c>
       <c r="C8" t="n">
-        <v>0.543145069828104</v>
+        <v>0.553370178630955</v>
       </c>
       <c r="D8" t="n">
-        <v>0.474501311635273</v>
+        <v>0.461813580959669</v>
       </c>
       <c r="E8" t="n">
-        <v>0.582095496172965</v>
+        <v>0.589647109907091</v>
       </c>
       <c r="F8" t="n">
-        <v>0.726521203594978</v>
+        <v>0.709373349943712</v>
       </c>
       <c r="G8" t="n">
-        <v>0.516683014328921</v>
+        <v>0.502313710715308</v>
       </c>
     </row>
     <row r="9">
@@ -583,22 +583,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.522486365888942</v>
+        <v>0.536968215249695</v>
       </c>
       <c r="C9" t="n">
-        <v>0.563015631485034</v>
+        <v>0.574995057219097</v>
       </c>
       <c r="D9" t="n">
-        <v>0.583534360400842</v>
+        <v>0.567817797914446</v>
       </c>
       <c r="E9" t="n">
-        <v>0.555535004809154</v>
+        <v>0.574464670730597</v>
       </c>
       <c r="F9" t="n">
-        <v>0.695972447908683</v>
+        <v>0.68952301872868</v>
       </c>
       <c r="G9" t="n">
-        <v>0.537479470210701</v>
+        <v>0.509223975923072</v>
       </c>
     </row>
     <row r="10">
@@ -606,22 +606,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.583564934623285</v>
+        <v>0.576260769994676</v>
       </c>
       <c r="C10" t="n">
-        <v>0.60085514854368</v>
+        <v>0.602521116263654</v>
       </c>
       <c r="D10" t="n">
-        <v>0.626458785077602</v>
+        <v>0.609808785858749</v>
       </c>
       <c r="E10" t="n">
-        <v>0.571808732582098</v>
+        <v>0.593269893728387</v>
       </c>
       <c r="F10" t="n">
-        <v>0.641263799532265</v>
+        <v>0.65080574369961</v>
       </c>
       <c r="G10" t="n">
-        <v>0.58845359372917</v>
+        <v>0.576958671759513</v>
       </c>
     </row>
     <row r="11">
@@ -629,22 +629,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.533925920664392</v>
+        <v>0.538443468264634</v>
       </c>
       <c r="C11" t="n">
-        <v>0.506245447687487</v>
+        <v>0.541187502351268</v>
       </c>
       <c r="D11" t="n">
-        <v>0.464648213495476</v>
+        <v>0.503715145711722</v>
       </c>
       <c r="E11" t="n">
-        <v>0.538620944501814</v>
+        <v>0.54919037812932</v>
       </c>
       <c r="F11" t="n">
-        <v>0.604991302855216</v>
+        <v>0.565602121213899</v>
       </c>
       <c r="G11" t="n">
-        <v>0.574542866003825</v>
+        <v>0.616625727793589</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/conjoint_all_positive.xlsx
+++ b/xlsx/country_comparison/conjoint_all_positive.xlsx
@@ -422,7 +422,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.527972736493319</v>
+        <v>0.542040008566919</v>
       </c>
       <c r="C2" t="n">
         <v>0.757320866764204</v>
@@ -629,22 +629,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.538443468264634</v>
+        <v>0.469348959719292</v>
       </c>
       <c r="C11" t="n">
-        <v>0.541187502351268</v>
+        <v>0.526336893165654</v>
       </c>
       <c r="D11" t="n">
-        <v>0.503715145711722</v>
+        <v>0.575459154996921</v>
       </c>
       <c r="E11" t="n">
-        <v>0.54919037812932</v>
+        <v>0.508831293471374</v>
       </c>
       <c r="F11" t="n">
-        <v>0.565602121213899</v>
+        <v>0.496827458614761</v>
       </c>
       <c r="G11" t="n">
-        <v>0.616625727793589</v>
+        <v>0.518554917937033</v>
       </c>
     </row>
   </sheetData>
